--- a/sks-kobe-t/pdf/report3.xlsx
+++ b/sks-kobe-t/pdf/report3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0cdd37d84950a6/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8628B9B-96D9-4D2A-9CC8-051FC55263CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6A4C0-153F-40FA-BB06-2327CB7C89BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AB502351-2F94-4DDB-B42E-2325F3F9BE82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB502351-2F94-4DDB-B42E-2325F3F9BE82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -341,6 +341,14 @@
     <rPh sb="5" eb="6">
       <t>シャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤原運輸</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -373,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -459,13 +467,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,17 +568,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,34 +921,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AF23CF-0429-438C-9404-5C260A76F2E1}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="118" zoomScaleNormal="100" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="1.25" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="0.875" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="7.25" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="12" max="12" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="13"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -851,24 +972,32 @@
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -876,489 +1005,702 @@
         <v>8</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="G36:H38"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A36:A38"/>
+  <mergeCells count="117">
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J15:L17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G21:H26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J29:L35"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G28:H34"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G14:H16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J22:L27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="J37:L39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="1.1417322834645669" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="1.1417322834645669" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>